--- a/scripts/利率互换专项报表_东海证券2019-04-30.xlsx
+++ b/scripts/利率互换专项报表_东海证券2019-04-30.xlsx
@@ -1312,8 +1312,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O198"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C202" sqref="C202"/>
+    <sheetView topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="E197" sqref="E197"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -10552,8 +10552,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="S5" sqref="S5:S22"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22:XFD23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
